--- a/Pipeline_2-Vulnerability/Technology/Outputs/Data/RIS_Tech_n.xlsx
+++ b/Pipeline_2-Vulnerability/Technology/Outputs/Data/RIS_Tech_n.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N233"/>
+  <dimension ref="A1:L233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -415,16 +415,6 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>4.1.1_KnowledgeEmp</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>4.1.2_InnovEmp</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
           <t>4.2.3_SalesNewInno</t>
         </is>
       </c>
@@ -472,12 +462,6 @@
         <v>0.8028430976430977</v>
       </c>
       <c r="L2">
-        <v>0.6045322186202581</v>
-      </c>
-      <c r="M2">
-        <v>0.697485075769172</v>
-      </c>
-      <c r="N2">
         <v>0.6818415637860081</v>
       </c>
     </row>
@@ -524,12 +508,6 @@
         <v>0.8028430976430977</v>
       </c>
       <c r="L3">
-        <v>0.6045322186202581</v>
-      </c>
-      <c r="M3">
-        <v>0.697485075769172</v>
-      </c>
-      <c r="N3">
         <v>0.6818415637860081</v>
       </c>
     </row>
@@ -576,12 +554,6 @@
         <v>0.8028430976430977</v>
       </c>
       <c r="L4">
-        <v>0.6045322186202581</v>
-      </c>
-      <c r="M4">
-        <v>0.697485075769172</v>
-      </c>
-      <c r="N4">
         <v>0.6818415637860081</v>
       </c>
     </row>
@@ -628,12 +600,6 @@
         <v>0.6669849607182942</v>
       </c>
       <c r="L5">
-        <v>0.5487965648637889</v>
-      </c>
-      <c r="M5">
-        <v>0.6310316852900658</v>
-      </c>
-      <c r="N5">
         <v>0.5580092592592591</v>
       </c>
     </row>
@@ -680,12 +646,6 @@
         <v>0.6669849607182942</v>
       </c>
       <c r="L6">
-        <v>0.5487965648637889</v>
-      </c>
-      <c r="M6">
-        <v>0.6310316852900658</v>
-      </c>
-      <c r="N6">
         <v>0.5580092592592591</v>
       </c>
     </row>
@@ -732,12 +692,6 @@
         <v>0.8300763187429854</v>
       </c>
       <c r="L7">
-        <v>0.5534226241255757</v>
-      </c>
-      <c r="M7">
-        <v>0.7481376600846982</v>
-      </c>
-      <c r="N7">
         <v>0.45934670781893</v>
       </c>
     </row>
@@ -784,12 +738,6 @@
         <v>0.8300763187429854</v>
       </c>
       <c r="L8">
-        <v>0.5534226241255757</v>
-      </c>
-      <c r="M8">
-        <v>0.7481376600846982</v>
-      </c>
-      <c r="N8">
         <v>0.45934670781893</v>
       </c>
     </row>
@@ -836,12 +784,6 @@
         <v>0.8300763187429854</v>
       </c>
       <c r="L9">
-        <v>0.5534226241255757</v>
-      </c>
-      <c r="M9">
-        <v>0.7481376600846982</v>
-      </c>
-      <c r="N9">
         <v>0.45934670781893</v>
       </c>
     </row>
@@ -888,12 +830,6 @@
         <v>0.8300763187429854</v>
       </c>
       <c r="L10">
-        <v>0.5534226241255757</v>
-      </c>
-      <c r="M10">
-        <v>0.7481376600846982</v>
-      </c>
-      <c r="N10">
         <v>0.45934670781893</v>
       </c>
     </row>
@@ -940,12 +876,6 @@
         <v>0.8465746352413019</v>
       </c>
       <c r="L11">
-        <v>0.7113217312176534</v>
-      </c>
-      <c r="M11">
-        <v>0.7451375070156641</v>
-      </c>
-      <c r="N11">
         <v>0.3790843621399176</v>
       </c>
     </row>
@@ -992,12 +922,6 @@
         <v>0.99</v>
       </c>
       <c r="L12">
-        <v>0.5952243644429278</v>
-      </c>
-      <c r="M12">
-        <v>0.8808944333894585</v>
-      </c>
-      <c r="N12">
         <v>0.6292335390946501</v>
       </c>
     </row>
@@ -1044,12 +968,6 @@
         <v>0.99</v>
       </c>
       <c r="L13">
-        <v>0.5952243644429278</v>
-      </c>
-      <c r="M13">
-        <v>0.8808944333894585</v>
-      </c>
-      <c r="N13">
         <v>0.6292335390946501</v>
       </c>
     </row>
@@ -1096,12 +1014,6 @@
         <v>0.99</v>
       </c>
       <c r="L14">
-        <v>0.5952243644429278</v>
-      </c>
-      <c r="M14">
-        <v>0.8808944333894585</v>
-      </c>
-      <c r="N14">
         <v>0.6292335390946501</v>
       </c>
     </row>
@@ -1148,12 +1060,6 @@
         <v>0.99</v>
       </c>
       <c r="L15">
-        <v>0.5952243644429278</v>
-      </c>
-      <c r="M15">
-        <v>0.8808944333894585</v>
-      </c>
-      <c r="N15">
         <v>0.6292335390946501</v>
       </c>
     </row>
@@ -1200,12 +1106,6 @@
         <v>0.99</v>
       </c>
       <c r="L16">
-        <v>0.5952243644429278</v>
-      </c>
-      <c r="M16">
-        <v>0.8808944333894585</v>
-      </c>
-      <c r="N16">
         <v>0.6292335390946501</v>
       </c>
     </row>
@@ -1252,12 +1152,6 @@
         <v>0.8318801346801347</v>
       </c>
       <c r="L17">
-        <v>0.5255547972473412</v>
-      </c>
-      <c r="M17">
-        <v>0.7271365886014591</v>
-      </c>
-      <c r="N17">
         <v>0.718966049382716</v>
       </c>
     </row>
@@ -1304,12 +1198,6 @@
         <v>0.8318801346801347</v>
       </c>
       <c r="L18">
-        <v>0.5255547972473412</v>
-      </c>
-      <c r="M18">
-        <v>0.7271365886014591</v>
-      </c>
-      <c r="N18">
         <v>0.718966049382716</v>
       </c>
     </row>
@@ -1356,12 +1244,6 @@
         <v>0.8318801346801347</v>
       </c>
       <c r="L19">
-        <v>0.5255547972473412</v>
-      </c>
-      <c r="M19">
-        <v>0.7271365886014591</v>
-      </c>
-      <c r="N19">
         <v>0.718966049382716</v>
       </c>
     </row>
@@ -1408,12 +1290,6 @@
         <v>0.8318801346801347</v>
       </c>
       <c r="L20">
-        <v>0.5255547972473412</v>
-      </c>
-      <c r="M20">
-        <v>0.7271365886014591</v>
-      </c>
-      <c r="N20">
         <v>0.718966049382716</v>
       </c>
     </row>
@@ -1460,12 +1336,6 @@
         <v>0.8318801346801347</v>
       </c>
       <c r="L21">
-        <v>0.5255547972473412</v>
-      </c>
-      <c r="M21">
-        <v>0.7271365886014591</v>
-      </c>
-      <c r="N21">
         <v>0.718966049382716</v>
       </c>
     </row>
@@ -1512,12 +1382,6 @@
         <v>0.2942109988776655</v>
       </c>
       <c r="L22">
-        <v>0.2004487288858557</v>
-      </c>
-      <c r="M22">
-        <v>0.3462171539364253</v>
-      </c>
-      <c r="N22">
         <v>0.3574074074074074</v>
       </c>
     </row>
@@ -1564,12 +1428,6 @@
         <v>0.2864237934904602</v>
       </c>
       <c r="L23">
-        <v>0.3862156628561679</v>
-      </c>
-      <c r="M23">
-        <v>0.381618960151028</v>
-      </c>
-      <c r="N23">
         <v>0.2461059670781893</v>
       </c>
     </row>
@@ -1616,12 +1474,6 @@
         <v>0.2525032547699214</v>
       </c>
       <c r="L24">
-        <v>0.3444139225388159</v>
-      </c>
-      <c r="M24">
-        <v>0.2660630644420633</v>
-      </c>
-      <c r="N24">
         <v>0.3159259259259258</v>
       </c>
     </row>
@@ -1668,12 +1520,6 @@
         <v>0.2470918069584736</v>
       </c>
       <c r="L25">
-        <v>0.3165460956605812</v>
-      </c>
-      <c r="M25">
-        <v>0.3016148783101179</v>
-      </c>
-      <c r="N25">
         <v>0.4733179012345678</v>
       </c>
     </row>
@@ -1720,12 +1566,6 @@
         <v>0.3500413019079686</v>
       </c>
       <c r="L26">
-        <v>0.6834539043394187</v>
-      </c>
-      <c r="M26">
-        <v>0.3849191285269656</v>
-      </c>
-      <c r="N26">
         <v>0.4079989711934156</v>
       </c>
     </row>
@@ -1772,12 +1612,6 @@
         <v>0.2756888888888889</v>
       </c>
       <c r="L27">
-        <v>0.3397878632770289</v>
-      </c>
-      <c r="M27">
-        <v>0.3239160161232716</v>
-      </c>
-      <c r="N27">
         <v>0.418261316872428</v>
       </c>
     </row>
@@ -1824,12 +1658,6 @@
         <v>0.99</v>
       </c>
       <c r="L28">
-        <v>0.99</v>
-      </c>
-      <c r="M28">
-        <v>0.7346869738251951</v>
-      </c>
-      <c r="N28">
         <v>0.5710802469135802</v>
       </c>
     </row>
@@ -1876,12 +1704,6 @@
         <v>0.7886325476992143</v>
       </c>
       <c r="L29">
-        <v>0.818166979468805</v>
-      </c>
-      <c r="M29">
-        <v>0.5838792795550792</v>
-      </c>
-      <c r="N29">
         <v>0.6262088477366254</v>
       </c>
     </row>
@@ -1928,12 +1750,6 @@
         <v>0.7641710437710437</v>
       </c>
       <c r="L30">
-        <v>0.7578052664505487</v>
-      </c>
-      <c r="M30">
-        <v>0.5646282973621104</v>
-      </c>
-      <c r="N30">
         <v>0.4141203703703703</v>
       </c>
     </row>
@@ -1980,12 +1796,6 @@
         <v>0.7125203142536477</v>
       </c>
       <c r="L31">
-        <v>0.6230921913211624</v>
-      </c>
-      <c r="M31">
-        <v>0.5866294198683606</v>
-      </c>
-      <c r="N31">
         <v>0.3029629629629629</v>
       </c>
     </row>
@@ -2032,12 +1842,6 @@
         <v>0.7837490460157127</v>
       </c>
       <c r="L32">
-        <v>0.8924626059261787</v>
-      </c>
-      <c r="M32">
-        <v>0.6463324659421399</v>
-      </c>
-      <c r="N32">
         <v>0.7509053497942386</v>
       </c>
     </row>
@@ -2084,12 +1888,6 @@
         <v>0.8241809203142537</v>
       </c>
       <c r="L33">
-        <v>0.7113217312176534</v>
-      </c>
-      <c r="M33">
-        <v>0.6218812184295117</v>
-      </c>
-      <c r="N33">
         <v>0.4468158436213991</v>
       </c>
     </row>
@@ -2136,12 +1934,6 @@
         <v>0.8060107744107744</v>
       </c>
       <c r="L34">
-        <v>0.6509600181993971</v>
-      </c>
-      <c r="M34">
-        <v>0.6287815704882902</v>
-      </c>
-      <c r="N34">
         <v>0.5027726337448558</v>
       </c>
     </row>
@@ -2188,12 +1980,6 @@
         <v>0.7693625140291807</v>
       </c>
       <c r="L35">
-        <v>0.6927617585167491</v>
-      </c>
-      <c r="M35">
-        <v>0.5994300729629063</v>
-      </c>
-      <c r="N35">
         <v>0.6638734567901234</v>
       </c>
     </row>
@@ -2240,12 +2026,6 @@
         <v>0.9408130190796857</v>
       </c>
       <c r="L36">
-        <v>0.99</v>
-      </c>
-      <c r="M36">
-        <v>0.827591713862952</v>
-      </c>
-      <c r="N36">
         <v>0.3844855967078189</v>
       </c>
     </row>
@@ -2292,12 +2072,6 @@
         <v>0.969630078563412</v>
       </c>
       <c r="L37">
-        <v>0.99</v>
-      </c>
-      <c r="M37">
-        <v>0.9239466299300985</v>
-      </c>
-      <c r="N37">
         <v>0.3803086419753086</v>
       </c>
     </row>
@@ -2344,12 +2118,6 @@
         <v>0.874379797979798</v>
       </c>
       <c r="L38">
-        <v>0.7670573849741227</v>
-      </c>
-      <c r="M38">
-        <v>0.8464426756467167</v>
-      </c>
-      <c r="N38">
         <v>0.3647170781893004</v>
       </c>
     </row>
@@ -2396,12 +2164,6 @@
         <v>0.9564754208754208</v>
       </c>
       <c r="L39">
-        <v>0.9342643462435307</v>
-      </c>
-      <c r="M39">
-        <v>0.8712939435685494</v>
-      </c>
-      <c r="N39">
         <v>0.3618364197530863</v>
       </c>
     </row>
@@ -2448,12 +2210,6 @@
         <v>0.99</v>
       </c>
       <c r="L40">
-        <v>0.99</v>
-      </c>
-      <c r="M40">
-        <v>0.833642022552171</v>
-      </c>
-      <c r="N40">
         <v>0.4989917695473251</v>
       </c>
     </row>
@@ -2500,12 +2256,6 @@
         <v>0.6366720538720538</v>
       </c>
       <c r="L41">
-        <v>0.8367269521697094</v>
-      </c>
-      <c r="M41">
-        <v>0.7980902086841165</v>
-      </c>
-      <c r="N41">
         <v>0.2923765432098765</v>
       </c>
     </row>
@@ -2552,12 +2302,6 @@
         <v>0.7108044893378227</v>
       </c>
       <c r="L42">
-        <v>0.897144400841722</v>
-      </c>
-      <c r="M42">
-        <v>0.6167309556610031</v>
-      </c>
-      <c r="N42">
         <v>0.4586985596707819</v>
       </c>
     </row>
@@ -2604,12 +2348,6 @@
         <v>0.7308664421997755</v>
       </c>
       <c r="L43">
-        <v>0.6695199909003013</v>
-      </c>
-      <c r="M43">
-        <v>0.737137098831573</v>
-      </c>
-      <c r="N43">
         <v>0.4592386831275719</v>
       </c>
     </row>
@@ -2656,12 +2394,6 @@
         <v>0.8147658810325477</v>
       </c>
       <c r="L44">
-        <v>0.8367269521697094</v>
-      </c>
-      <c r="M44">
-        <v>0.7484876779427522</v>
-      </c>
-      <c r="N44">
         <v>0.3768878600823045</v>
       </c>
     </row>
@@ -2708,12 +2440,6 @@
         <v>0.7291066217732883</v>
       </c>
       <c r="L45">
-        <v>0.7578052664505487</v>
-      </c>
-      <c r="M45">
-        <v>0.8896448798408081</v>
-      </c>
-      <c r="N45">
         <v>0.3111728395061728</v>
       </c>
     </row>
@@ -2760,12 +2486,6 @@
         <v>0.8819470258136924</v>
       </c>
       <c r="L46">
-        <v>0.7670573849741227</v>
-      </c>
-      <c r="M46">
-        <v>0.7067355477320271</v>
-      </c>
-      <c r="N46">
         <v>0.2283899176954732</v>
       </c>
     </row>
@@ -2812,12 +2532,6 @@
         <v>0.9354895622895624</v>
       </c>
       <c r="L47">
-        <v>0.8088591252914747</v>
-      </c>
-      <c r="M47">
-        <v>0.7294867085055359</v>
-      </c>
-      <c r="N47">
         <v>0.5108384773662551</v>
       </c>
     </row>
@@ -2864,12 +2578,6 @@
         <v>0.7680866442199775</v>
       </c>
       <c r="L48">
-        <v>0.3722817494170505</v>
-      </c>
-      <c r="M48">
-        <v>0.6797341701107199</v>
-      </c>
-      <c r="N48">
         <v>0.3214351851851852</v>
       </c>
     </row>
@@ -2916,12 +2624,6 @@
         <v>0.7690105499438833</v>
       </c>
       <c r="L49">
-        <v>0.6370261047602798</v>
-      </c>
-      <c r="M49">
-        <v>0.8071406704423694</v>
-      </c>
-      <c r="N49">
         <v>0.2686831275720165</v>
       </c>
     </row>
@@ -2968,12 +2670,6 @@
         <v>0.99</v>
       </c>
       <c r="L50">
-        <v>0.8274748336461354</v>
-      </c>
-      <c r="M50">
-        <v>0.99</v>
-      </c>
-      <c r="N50">
         <v>0.4106635802469135</v>
       </c>
     </row>
@@ -3020,12 +2716,6 @@
         <v>0.8839268237934904</v>
       </c>
       <c r="L51">
-        <v>0.7670573849741227</v>
-      </c>
-      <c r="M51">
-        <v>0.7257865197203939</v>
-      </c>
-      <c r="N51">
         <v>0.351574074074074</v>
       </c>
     </row>
@@ -3072,12 +2762,6 @@
         <v>0.8147218855218855</v>
       </c>
       <c r="L52">
-        <v>0.4465773758744241</v>
-      </c>
-      <c r="M52">
-        <v>0.9304469615796724</v>
-      </c>
-      <c r="N52">
         <v>0.2692592592592593</v>
       </c>
     </row>
@@ -3124,12 +2808,6 @@
         <v>0.8116861952861952</v>
       </c>
       <c r="L53">
-        <v>0.6416521640220667</v>
-      </c>
-      <c r="M53">
-        <v>0.656532986376856</v>
-      </c>
-      <c r="N53">
         <v>0.262741769547325</v>
       </c>
     </row>
@@ -3176,12 +2854,6 @@
         <v>0.5149804713804713</v>
       </c>
       <c r="L54">
-        <v>0.2933043280441335</v>
-      </c>
-      <c r="M54">
-        <v>0.5889795397724374</v>
-      </c>
-      <c r="N54">
         <v>0.1248662551440329</v>
       </c>
     </row>
@@ -3228,12 +2900,6 @@
         <v>0.9275703703703704</v>
       </c>
       <c r="L55">
-        <v>0.99</v>
-      </c>
-      <c r="M55">
-        <v>0.7447374866064594</v>
-      </c>
-      <c r="N55">
         <v>0.2950051440329218</v>
       </c>
     </row>
@@ -3280,12 +2946,6 @@
         <v>0.7234751964085298</v>
       </c>
       <c r="L56">
-        <v>0.5859165102655973</v>
-      </c>
-      <c r="M56">
-        <v>0.7291366906474819</v>
-      </c>
-      <c r="N56">
         <v>0.2624537037037037</v>
       </c>
     </row>
@@ -3332,12 +2992,6 @@
         <v>0.99</v>
       </c>
       <c r="L57">
-        <v>0.4837530569299892</v>
-      </c>
-      <c r="M57">
-        <v>0.9604984948211643</v>
-      </c>
-      <c r="N57">
         <v>0.3247479423868312</v>
       </c>
     </row>
@@ -3384,12 +3038,6 @@
         <v>0.8195173961840628</v>
       </c>
       <c r="L58">
-        <v>0.4605112893135415</v>
-      </c>
-      <c r="M58">
-        <v>0.6578830552579212</v>
-      </c>
-      <c r="N58">
         <v>0.3489454732510288</v>
       </c>
     </row>
@@ -3436,12 +3084,6 @@
         <v>0.9192112233445566</v>
       </c>
       <c r="L59">
-        <v>0.5905983051811409</v>
-      </c>
-      <c r="M59">
-        <v>0.7349869891320986</v>
-      </c>
-      <c r="N59">
         <v>0.2784053497942386</v>
       </c>
     </row>
@@ -3488,12 +3130,6 @@
         <v>0.9525598204264871</v>
       </c>
       <c r="L60">
-        <v>0.6463339589376101</v>
-      </c>
-      <c r="M60">
-        <v>0.9263467523853257</v>
-      </c>
-      <c r="N60">
         <v>0.4135802469135802</v>
       </c>
     </row>
@@ -3540,12 +3176,6 @@
         <v>0.9169674523007857</v>
       </c>
       <c r="L61">
-        <v>0.4698191434908718</v>
-      </c>
-      <c r="M61">
-        <v>0.7810393387417724</v>
-      </c>
-      <c r="N61">
         <v>0.2698713991769547</v>
       </c>
     </row>
@@ -3592,12 +3222,6 @@
         <v>0.8699362514029182</v>
       </c>
       <c r="L62">
-        <v>0.5859165102655973</v>
-      </c>
-      <c r="M62">
-        <v>0.8416924332874126</v>
-      </c>
-      <c r="N62">
         <v>0.2872273662551439</v>
       </c>
     </row>
@@ -3644,12 +3268,6 @@
         <v>0.799191470258137</v>
       </c>
       <c r="L63">
-        <v>0.5394887106864584</v>
-      </c>
-      <c r="M63">
-        <v>0.7913898668299403</v>
-      </c>
-      <c r="N63">
         <v>0.3615843621399177</v>
       </c>
     </row>
@@ -3696,12 +3314,6 @@
         <v>0.99</v>
       </c>
       <c r="L64">
-        <v>0.5394887106864584</v>
-      </c>
-      <c r="M64">
-        <v>0.99</v>
-      </c>
-      <c r="N64">
         <v>0.4131841563786008</v>
       </c>
     </row>
@@ -3748,12 +3360,6 @@
         <v>0.9411649831649832</v>
       </c>
       <c r="L65">
-        <v>0.05180174031735198</v>
-      </c>
-      <c r="M65">
-        <v>0.6335318128475943</v>
-      </c>
-      <c r="N65">
         <v>0.2676388888888889</v>
       </c>
     </row>
@@ -3800,12 +3406,6 @@
         <v>0.7674267115600449</v>
       </c>
       <c r="L66">
-        <v>0.7902991525905704</v>
-      </c>
-      <c r="M66">
-        <v>0.8552931272003673</v>
-      </c>
-      <c r="N66">
         <v>0.201167695473251</v>
       </c>
     </row>
@@ -3852,12 +3452,6 @@
         <v>0.8922859708193041</v>
       </c>
       <c r="L67">
-        <v>0.5348626514246715</v>
-      </c>
-      <c r="M67">
-        <v>0.6342318485637022</v>
-      </c>
-      <c r="N67">
         <v>0.2656224279835391</v>
       </c>
     </row>
@@ -3904,12 +3498,6 @@
         <v>0.7952318742985409</v>
       </c>
       <c r="L68">
-        <v>0.6509600181993971</v>
-      </c>
-      <c r="M68">
-        <v>0.7214362977702944</v>
-      </c>
-      <c r="N68">
         <v>0.3541306584362139</v>
       </c>
     </row>
@@ -3956,12 +3544,6 @@
         <v>0.7543600448933782</v>
       </c>
       <c r="L69">
-        <v>0.6416521640220667</v>
-      </c>
-      <c r="M69">
-        <v>0.6925848257564161</v>
-      </c>
-      <c r="N69">
         <v>0.4271553497942386</v>
       </c>
     </row>
@@ -4008,12 +3590,6 @@
         <v>0.807154657687991</v>
       </c>
       <c r="L70">
-        <v>0.5812904510038105</v>
-      </c>
-      <c r="M70">
-        <v>0.7866896270217869</v>
-      </c>
-      <c r="N70">
         <v>0.3449845679012346</v>
       </c>
     </row>
@@ -4060,12 +3636,6 @@
         <v>0.7692745230078564</v>
       </c>
       <c r="L71">
-        <v>0.3258539498379116</v>
-      </c>
-      <c r="M71">
-        <v>0.5793790499515281</v>
-      </c>
-      <c r="N71">
         <v>0.3157098765432098</v>
       </c>
     </row>
@@ -4112,12 +3682,6 @@
         <v>0.8847187429854095</v>
       </c>
       <c r="L72">
-        <v>0.4837530569299892</v>
-      </c>
-      <c r="M72">
-        <v>0.8283917546813612</v>
-      </c>
-      <c r="N72">
         <v>0.3498816872427983</v>
       </c>
     </row>
@@ -4164,12 +3728,6 @@
         <v>0.7150280583613916</v>
       </c>
       <c r="L73">
-        <v>0.5441147699482455</v>
-      </c>
-      <c r="M73">
-        <v>0.663833358844839</v>
-      </c>
-      <c r="N73">
         <v>0.3611162551440329</v>
       </c>
     </row>
@@ -4216,12 +3774,6 @@
         <v>0.8164817059483725</v>
       </c>
       <c r="L74">
-        <v>0.7902991525905704</v>
-      </c>
-      <c r="M74">
-        <v>0.5576779427521813</v>
-      </c>
-      <c r="N74">
         <v>0.5194804526748972</v>
       </c>
     </row>
@@ -4268,12 +3820,6 @@
         <v>0.4806199775533109</v>
       </c>
       <c r="L75">
-        <v>0.3815896035943809</v>
-      </c>
-      <c r="M75">
-        <v>0.5576779427521813</v>
-      </c>
-      <c r="N75">
         <v>0.7143930041152262</v>
       </c>
     </row>
@@ -4320,12 +3866,6 @@
         <v>0.5568641975308641</v>
       </c>
       <c r="L76">
-        <v>0.3815896035943809</v>
-      </c>
-      <c r="M76">
-        <v>0.5576779427521813</v>
-      </c>
-      <c r="N76">
         <v>0.3099485596707818</v>
       </c>
     </row>
@@ -4372,12 +3912,6 @@
         <v>0.7376417508417508</v>
       </c>
       <c r="L77">
-        <v>0.4837530569299892</v>
-      </c>
-      <c r="M77">
-        <v>0.5576779427521813</v>
-      </c>
-      <c r="N77">
         <v>0.4714094650205761</v>
       </c>
     </row>
@@ -4424,12 +3958,6 @@
         <v>0.6808875420875421</v>
       </c>
       <c r="L78">
-        <v>0.3304800090996985</v>
-      </c>
-      <c r="M78">
-        <v>0.5576779427521813</v>
-      </c>
-      <c r="N78">
         <v>0.5063374485596708</v>
       </c>
     </row>
@@ -4476,12 +4004,6 @@
         <v>0.99</v>
       </c>
       <c r="L79">
-        <v>0.734563498834101</v>
-      </c>
-      <c r="M79">
-        <v>0.8244915556916168</v>
-      </c>
-      <c r="N79">
         <v>0.8769341563786007</v>
       </c>
     </row>
@@ -4528,12 +4050,6 @@
         <v>0.6844071829405163</v>
       </c>
       <c r="L80">
-        <v>0.135405220952056</v>
-      </c>
-      <c r="M80">
-        <v>0.5197760089800499</v>
-      </c>
-      <c r="N80">
         <v>0.3508899176954732</v>
       </c>
     </row>
@@ -4580,12 +4096,6 @@
         <v>0.7281387205387205</v>
       </c>
       <c r="L81">
-        <v>0.214382642324973</v>
-      </c>
-      <c r="M81">
-        <v>0.7217363130771978</v>
-      </c>
-      <c r="N81">
         <v>0.5393569958847736</v>
       </c>
     </row>
@@ -4632,12 +4142,6 @@
         <v>0.99</v>
       </c>
       <c r="L82">
-        <v>0.09360348063470396</v>
-      </c>
-      <c r="M82">
-        <v>0.8163411398540741</v>
-      </c>
-      <c r="N82">
         <v>0.73934670781893</v>
       </c>
     </row>
@@ -4684,12 +4188,6 @@
         <v>0.9395371492704826</v>
       </c>
       <c r="L83">
-        <v>0.1029113348120343</v>
-      </c>
-      <c r="M83">
-        <v>0.8327419766314607</v>
-      </c>
-      <c r="N83">
         <v>0.761599794238683</v>
       </c>
     </row>
@@ -4736,12 +4234,6 @@
         <v>0.99</v>
       </c>
       <c r="L84">
-        <v>0.2701182960814423</v>
-      </c>
-      <c r="M84">
-        <v>0.9093958875452829</v>
-      </c>
-      <c r="N84">
         <v>0.8191049382716048</v>
       </c>
     </row>
@@ -4788,12 +4280,6 @@
         <v>0.9629867564534231</v>
       </c>
       <c r="L85">
-        <v>0.01</v>
-      </c>
-      <c r="M85">
-        <v>0.6543828766773815</v>
-      </c>
-      <c r="N85">
         <v>0.6574999999999999</v>
       </c>
     </row>
@@ -4840,12 +4326,6 @@
         <v>0.99</v>
       </c>
       <c r="L86">
-        <v>0.01</v>
-      </c>
-      <c r="M86">
-        <v>0.8120409204551252</v>
-      </c>
-      <c r="N86">
         <v>0.99</v>
       </c>
     </row>
@@ -4892,12 +4372,6 @@
         <v>0.99</v>
       </c>
       <c r="L87">
-        <v>0.1075373940738213</v>
-      </c>
-      <c r="M87">
-        <v>0.8178412163885912</v>
-      </c>
-      <c r="N87">
         <v>0.7750668724279834</v>
       </c>
     </row>
@@ -4944,12 +4418,6 @@
         <v>0.9133598204264871</v>
       </c>
       <c r="L88">
-        <v>0.0332417676164477</v>
-      </c>
-      <c r="M88">
-        <v>0.7078356038573396</v>
-      </c>
-      <c r="N88">
         <v>0.8514043209876542</v>
       </c>
     </row>
@@ -4996,12 +4464,6 @@
         <v>0.99</v>
       </c>
       <c r="L89">
-        <v>0.1772069612694079</v>
-      </c>
-      <c r="M89">
-        <v>0.7684386958518292</v>
-      </c>
-      <c r="N89">
         <v>0.7458641975308641</v>
       </c>
     </row>
@@ -5048,12 +4510,6 @@
         <v>0.99</v>
       </c>
       <c r="L90">
-        <v>0.04249388614002161</v>
-      </c>
-      <c r="M90">
-        <v>0.8147910607684065</v>
-      </c>
-      <c r="N90">
         <v>0.99</v>
       </c>
     </row>
@@ -5100,12 +4556,6 @@
         <v>0.99</v>
       </c>
       <c r="L91">
-        <v>0.130779161690269</v>
-      </c>
-      <c r="M91">
-        <v>0.6709837236593703</v>
-      </c>
-      <c r="N91">
         <v>0.4732818930041152</v>
       </c>
     </row>
@@ -5152,12 +4602,6 @@
         <v>0.3024381593714927</v>
       </c>
       <c r="L92">
-        <v>0.4001495762952852</v>
-      </c>
-      <c r="M92">
-        <v>0.2861140874534415</v>
-      </c>
-      <c r="N92">
         <v>0.5347839506172839</v>
       </c>
     </row>
@@ -5204,12 +4648,6 @@
         <v>0.3137450056116723</v>
       </c>
       <c r="L93">
-        <v>0.3397878632770289</v>
-      </c>
-      <c r="M93">
-        <v>0.29301443951222</v>
-      </c>
-      <c r="N93">
         <v>0.3667335390946501</v>
       </c>
     </row>
@@ -5256,12 +4694,6 @@
         <v>0.3330150392817059</v>
       </c>
       <c r="L94">
-        <v>0.3351060683614855</v>
-      </c>
-      <c r="M94">
-        <v>0.3179657125363539</v>
-      </c>
-      <c r="N94">
         <v>0.5376646090534979</v>
       </c>
     </row>
@@ -5308,12 +4740,6 @@
         <v>0.4386042648709316</v>
       </c>
       <c r="L95">
-        <v>0.7484974122732184</v>
-      </c>
-      <c r="M95">
-        <v>0.4890244400224501</v>
-      </c>
-      <c r="N95">
         <v>0.9036162551440328</v>
       </c>
     </row>
@@ -5360,12 +4786,6 @@
         <v>0.3448498316498317</v>
       </c>
       <c r="L96">
-        <v>0.6324000454984928</v>
-      </c>
-      <c r="M96">
-        <v>0.3993198632583295</v>
-      </c>
-      <c r="N96">
         <v>0.6744238683127571</v>
       </c>
     </row>
@@ -5412,12 +4832,6 @@
         <v>0.3614801346801347</v>
       </c>
       <c r="L97">
-        <v>0.2422504692032076</v>
-      </c>
-      <c r="M97">
-        <v>0.3408168784121638</v>
-      </c>
-      <c r="N97">
         <v>0.5643106995884773</v>
       </c>
     </row>
@@ -5464,12 +4878,6 @@
         <v>0.3332350168350168</v>
       </c>
       <c r="L98">
-        <v>0.4837530569299892</v>
-      </c>
-      <c r="M98">
-        <v>0.3227659574468085</v>
-      </c>
-      <c r="N98">
         <v>0.7142489711934155</v>
       </c>
     </row>
@@ -5516,12 +4924,6 @@
         <v>0.3813221099887767</v>
       </c>
       <c r="L99">
-        <v>0.7717391798896661</v>
-      </c>
-      <c r="M99">
-        <v>0.3014648706566661</v>
-      </c>
-      <c r="N99">
         <v>0.7099999999999999</v>
       </c>
     </row>
@@ -5568,12 +4970,6 @@
         <v>0.3251398428731762</v>
       </c>
       <c r="L100">
-        <v>0.3165460956605812</v>
-      </c>
-      <c r="M100">
-        <v>0.3113653757844788</v>
-      </c>
-      <c r="N100">
         <v>0.6519907407407406</v>
       </c>
     </row>
@@ -5620,12 +5016,6 @@
         <v>0.2221463524130191</v>
       </c>
       <c r="L101">
-        <v>0.2283165557640903</v>
-      </c>
-      <c r="M101">
-        <v>0.2018097862135823</v>
-      </c>
-      <c r="N101">
         <v>0.5768415637860081</v>
       </c>
     </row>
@@ -5672,12 +5062,6 @@
         <v>0.2336731762065096</v>
       </c>
       <c r="L102">
-        <v>0.1260973667747256</v>
-      </c>
-      <c r="M102">
-        <v>0.2511123016480433</v>
-      </c>
-      <c r="N102">
         <v>0.5712962962962962</v>
       </c>
     </row>
@@ -5724,12 +5108,6 @@
         <v>0.3847097643097643</v>
       </c>
       <c r="L103">
-        <v>0.6788278450776317</v>
-      </c>
-      <c r="M103">
-        <v>0.3628680034695647</v>
-      </c>
-      <c r="N103">
         <v>0.7790277777777777</v>
       </c>
     </row>
@@ -5776,12 +5154,6 @@
         <v>0.3205203142536476</v>
       </c>
       <c r="L104">
-        <v>0.3629738952397201</v>
-      </c>
-      <c r="M104">
-        <v>0.3107153426195214</v>
-      </c>
-      <c r="N104">
         <v>0.7597633744855966</v>
       </c>
     </row>
@@ -5828,12 +5200,6 @@
         <v>0.2102675645342312</v>
       </c>
       <c r="L105">
-        <v>0.2097008474094295</v>
-      </c>
-      <c r="M105">
-        <v>0.1219557120261238</v>
-      </c>
-      <c r="N105">
         <v>0.3153858024691358</v>
       </c>
     </row>
@@ -5880,12 +5246,6 @@
         <v>0.2512273849607183</v>
       </c>
       <c r="L106">
-        <v>0.2236347608485469</v>
-      </c>
-      <c r="M106">
-        <v>0.2057099852033267</v>
-      </c>
-      <c r="N106">
         <v>0.4596347736625515</v>
       </c>
     </row>
@@ -5932,12 +5292,6 @@
         <v>0.2879196408529742</v>
       </c>
       <c r="L107">
-        <v>0.2004487288858557</v>
-      </c>
-      <c r="M107">
-        <v>0.2311112811878157</v>
-      </c>
-      <c r="N107">
         <v>0.5835030864197531</v>
       </c>
     </row>
@@ -5984,12 +5338,6 @@
         <v>0.01</v>
       </c>
       <c r="L108">
-        <v>0.1029113348120343</v>
-      </c>
-      <c r="M108">
-        <v>0.01</v>
-      </c>
-      <c r="N108">
         <v>0.2343312757201646</v>
       </c>
     </row>
@@ -6036,12 +5384,6 @@
         <v>0.08620022446689113</v>
       </c>
       <c r="L109">
-        <v>0.2190087015867599</v>
-      </c>
-      <c r="M109">
-        <v>0.01</v>
-      </c>
-      <c r="N109">
         <v>0.4455195473251028</v>
       </c>
     </row>
@@ -6088,12 +5430,6 @@
         <v>0.2681656565656566</v>
       </c>
       <c r="L110">
-        <v>0.2283165557640903</v>
-      </c>
-      <c r="M110">
-        <v>0.1759584672687382</v>
-      </c>
-      <c r="N110">
         <v>0.3054475308641975</v>
       </c>
     </row>
@@ -6140,12 +5476,6 @@
         <v>0.868176430976431</v>
       </c>
       <c r="L111">
-        <v>0.5394887106864584</v>
-      </c>
-      <c r="M111">
-        <v>0.7514878310117863</v>
-      </c>
-      <c r="N111">
         <v>0.4682767489711934</v>
       </c>
     </row>
@@ -6192,12 +5522,6 @@
         <v>0.9012610549943884</v>
       </c>
       <c r="L112">
-        <v>0.901770460103509</v>
-      </c>
-      <c r="M112">
-        <v>0.7977401908260625</v>
-      </c>
-      <c r="N112">
         <v>0.8284310699588475</v>
       </c>
     </row>
@@ -6244,12 +5568,6 @@
         <v>0.788280583613917</v>
       </c>
       <c r="L113">
-        <v>0.5534226241255757</v>
-      </c>
-      <c r="M113">
-        <v>0.7789392315934486</v>
-      </c>
-      <c r="N113">
         <v>0.6765843621399177</v>
       </c>
     </row>
@@ -6296,12 +5614,6 @@
         <v>0.8577494949494949</v>
       </c>
       <c r="L114">
-        <v>0.4001495762952852</v>
-      </c>
-      <c r="M114">
-        <v>0.7371871013827236</v>
-      </c>
-      <c r="N114">
         <v>0.6754320987654321</v>
       </c>
     </row>
@@ -6348,12 +5660,6 @@
         <v>0.5811057239057239</v>
       </c>
       <c r="L115">
-        <v>0.01</v>
-      </c>
-      <c r="M115">
-        <v>0.7282866472779222</v>
-      </c>
-      <c r="N115">
         <v>0.04615226337448559</v>
       </c>
     </row>
@@ -6400,12 +5706,6 @@
         <v>0.7197355780022446</v>
       </c>
       <c r="L116">
-        <v>0.8227930387305921</v>
-      </c>
-      <c r="M116">
-        <v>0.6303816521251083</v>
-      </c>
-      <c r="N116">
         <v>0.3381430041152263</v>
       </c>
     </row>
@@ -6452,12 +5752,6 @@
         <v>0.5564682379349046</v>
       </c>
       <c r="L117">
-        <v>0.3908417221179548</v>
-      </c>
-      <c r="M117">
-        <v>0.6684335935506914</v>
-      </c>
-      <c r="N117">
         <v>0.3579115226337448</v>
       </c>
     </row>
@@ -6504,12 +5798,6 @@
         <v>0.6397957351290685</v>
       </c>
       <c r="L118">
-        <v>0.3258539498379116</v>
-      </c>
-      <c r="M118">
-        <v>0.6131807745293126</v>
-      </c>
-      <c r="N118">
         <v>0.2474382716049383</v>
       </c>
     </row>
@@ -6556,12 +5844,6 @@
         <v>0.6397957351290685</v>
       </c>
       <c r="L119">
-        <v>0.3258539498379116</v>
-      </c>
-      <c r="M119">
-        <v>0.6131807745293126</v>
-      </c>
-      <c r="N119">
         <v>0.2474382716049383</v>
       </c>
     </row>
@@ -6608,12 +5890,6 @@
         <v>0.507193265993266</v>
       </c>
       <c r="L120">
-        <v>0.3444139225388159</v>
-      </c>
-      <c r="M120">
-        <v>0.5095254859941833</v>
-      </c>
-      <c r="N120">
         <v>0.1920216049382716</v>
       </c>
     </row>
@@ -6660,12 +5936,6 @@
         <v>0.507193265993266</v>
       </c>
       <c r="L121">
-        <v>0.3444139225388159</v>
-      </c>
-      <c r="M121">
-        <v>0.5095254859941833</v>
-      </c>
-      <c r="N121">
         <v>0.1920216049382716</v>
       </c>
     </row>
@@ -6712,12 +5982,6 @@
         <v>0.5775420875420876</v>
       </c>
       <c r="L122">
-        <v>0.3351060683614855</v>
-      </c>
-      <c r="M122">
-        <v>0.4832241440889841</v>
-      </c>
-      <c r="N122">
         <v>0.1451388888888889</v>
       </c>
     </row>
@@ -6764,12 +6028,6 @@
         <v>0.5775420875420876</v>
       </c>
       <c r="L123">
-        <v>0.3351060683614855</v>
-      </c>
-      <c r="M123">
-        <v>0.4832241440889841</v>
-      </c>
-      <c r="N123">
         <v>0.1451388888888889</v>
       </c>
     </row>
@@ -6816,12 +6074,6 @@
         <v>0.7032372615039282</v>
       </c>
       <c r="L124">
-        <v>0.4140834897344025</v>
-      </c>
-      <c r="M124">
-        <v>0.6391320985764579</v>
-      </c>
-      <c r="N124">
         <v>0.2721399176954732</v>
       </c>
     </row>
@@ -6868,12 +6120,6 @@
         <v>0.7032372615039282</v>
       </c>
       <c r="L125">
-        <v>0.4140834897344025</v>
-      </c>
-      <c r="M125">
-        <v>0.6391320985764579</v>
-      </c>
-      <c r="N125">
         <v>0.2721399176954732</v>
       </c>
     </row>
@@ -6920,12 +6166,6 @@
         <v>0.7032372615039282</v>
       </c>
       <c r="L126">
-        <v>0.4140834897344025</v>
-      </c>
-      <c r="M126">
-        <v>0.6391320985764579</v>
-      </c>
-      <c r="N126">
         <v>0.2721399176954732</v>
       </c>
     </row>
@@ -6972,12 +6212,6 @@
         <v>0.7485966329966329</v>
       </c>
       <c r="L127">
-        <v>0.4605112893135415</v>
-      </c>
-      <c r="M127">
-        <v>0.6536328384101229</v>
-      </c>
-      <c r="N127">
         <v>0.323559670781893</v>
       </c>
     </row>
@@ -7024,12 +6258,6 @@
         <v>0.685595061728395</v>
       </c>
       <c r="L128">
-        <v>0.3211721549223682</v>
-      </c>
-      <c r="M128">
-        <v>0.6222312362875656</v>
-      </c>
-      <c r="N128">
         <v>0.5160236625514404</v>
       </c>
     </row>
@@ -7076,12 +6304,6 @@
         <v>0.618589898989899</v>
       </c>
       <c r="L129">
-        <v>0.2840522095205597</v>
-      </c>
-      <c r="M129">
-        <v>0.5444272666972804</v>
-      </c>
-      <c r="N129">
         <v>0.2974537037037037</v>
       </c>
     </row>
@@ -7128,12 +6350,6 @@
         <v>0.618589898989899</v>
       </c>
       <c r="L130">
-        <v>0.2840522095205597</v>
-      </c>
-      <c r="M130">
-        <v>0.5444272666972804</v>
-      </c>
-      <c r="N130">
         <v>0.2974537037037037</v>
       </c>
     </row>
@@ -7180,12 +6396,6 @@
         <v>0.618589898989899</v>
       </c>
       <c r="L131">
-        <v>0.2840522095205597</v>
-      </c>
-      <c r="M131">
-        <v>0.5444272666972804</v>
-      </c>
-      <c r="N131">
         <v>0.2974537037037037</v>
       </c>
     </row>
@@ -7232,12 +6442,6 @@
         <v>0.710848484848485</v>
       </c>
       <c r="L132">
-        <v>0.4744452027526588</v>
-      </c>
-      <c r="M132">
-        <v>0.5909796418184601</v>
-      </c>
-      <c r="N132">
         <v>0.2728240740740741</v>
       </c>
     </row>
@@ -7284,12 +6488,6 @@
         <v>0.710848484848485</v>
       </c>
       <c r="L133">
-        <v>0.4744452027526588</v>
-      </c>
-      <c r="M133">
-        <v>0.5909796418184601</v>
-      </c>
-      <c r="N133">
         <v>0.2728240740740741</v>
       </c>
     </row>
@@ -7336,12 +6534,6 @@
         <v>0.7175797979797981</v>
       </c>
       <c r="L134">
-        <v>0.4791269976682022</v>
-      </c>
-      <c r="M134">
-        <v>0.6468824940047961</v>
-      </c>
-      <c r="N134">
         <v>0.3282767489711934</v>
       </c>
     </row>
@@ -7388,12 +6580,6 @@
         <v>0.7175797979797981</v>
       </c>
       <c r="L135">
-        <v>0.4791269976682022</v>
-      </c>
-      <c r="M135">
-        <v>0.6468824940047961</v>
-      </c>
-      <c r="N135">
         <v>0.3282767489711934</v>
       </c>
     </row>
@@ -7440,12 +6626,6 @@
         <v>0.7406774410774412</v>
       </c>
       <c r="L136">
-        <v>0.3676556901552636</v>
-      </c>
-      <c r="M136">
-        <v>0.4816240624521659</v>
-      </c>
-      <c r="N136">
         <v>0.4690329218106996</v>
       </c>
     </row>
@@ -7492,12 +6672,6 @@
         <v>0.3667156004489338</v>
       </c>
       <c r="L137">
-        <v>0.09822953989649091</v>
-      </c>
-      <c r="M137">
-        <v>0.02635083422623603</v>
-      </c>
-      <c r="N137">
         <v>0.04021090534979423</v>
       </c>
     </row>
@@ -7544,12 +6718,6 @@
         <v>0.6251452300785634</v>
       </c>
       <c r="L138">
-        <v>0.2329426150258773</v>
-      </c>
-      <c r="M138">
-        <v>0.5346767692229195</v>
-      </c>
-      <c r="N138">
         <v>0.6849382716049383</v>
       </c>
     </row>
@@ -7596,12 +6764,6 @@
         <v>0.6628493827160493</v>
       </c>
       <c r="L139">
-        <v>0.2840522095205597</v>
-      </c>
-      <c r="M139">
-        <v>0.4833241491912852</v>
-      </c>
-      <c r="N139">
         <v>0.5766615226337448</v>
       </c>
     </row>
@@ -7648,12 +6810,6 @@
         <v>0.8752157126823793</v>
       </c>
       <c r="L140">
-        <v>0.7484974122732184</v>
-      </c>
-      <c r="M140">
-        <v>0.7094356854941578</v>
-      </c>
-      <c r="N140">
         <v>0.8889248971193414</v>
       </c>
     </row>
@@ -7700,12 +6856,6 @@
         <v>0.728490684624018</v>
       </c>
       <c r="L141">
-        <v>0.2840522095205597</v>
-      </c>
-      <c r="M141">
-        <v>0.5872294504821673</v>
-      </c>
-      <c r="N141">
         <v>0.830375514403292</v>
       </c>
     </row>
@@ -7752,12 +6902,6 @@
         <v>0.3664516273849607</v>
       </c>
       <c r="L142">
-        <v>0.99</v>
-      </c>
-      <c r="M142">
-        <v>0.360517883565488</v>
-      </c>
-      <c r="N142">
         <v>0.2366718106995885</v>
       </c>
     </row>
@@ -7804,12 +6948,6 @@
         <v>0.2813643097643098</v>
       </c>
       <c r="L143">
-        <v>0.7484974122732184</v>
-      </c>
-      <c r="M143">
-        <v>0.2445119648961682</v>
-      </c>
-      <c r="N143">
         <v>0.2028960905349794</v>
       </c>
     </row>
@@ -7856,12 +6994,6 @@
         <v>0.2354769921436588</v>
       </c>
       <c r="L144">
-        <v>0.7856730933287833</v>
-      </c>
-      <c r="M144">
-        <v>0.2747135057911118</v>
-      </c>
-      <c r="N144">
         <v>0.3209310699588477</v>
       </c>
     </row>
@@ -7908,12 +7040,6 @@
         <v>0.2675057239057239</v>
       </c>
       <c r="L145">
-        <v>0.7252556446567708</v>
-      </c>
-      <c r="M145">
-        <v>0.236061533751722</v>
-      </c>
-      <c r="N145">
         <v>0.4409104938271605</v>
       </c>
     </row>
@@ -7960,12 +7086,6 @@
         <v>0.25166734006734</v>
       </c>
       <c r="L146">
-        <v>0.3397878632770289</v>
-      </c>
-      <c r="M146">
-        <v>0.2094601765396193</v>
-      </c>
-      <c r="N146">
         <v>0.1967026748971193</v>
       </c>
     </row>
@@ -8012,12 +7132,6 @@
         <v>0.2735331088664422</v>
       </c>
       <c r="L147">
-        <v>0.6324000454984928</v>
-      </c>
-      <c r="M147">
-        <v>0.3223159344864534</v>
-      </c>
-      <c r="N147">
         <v>0.2773611111111111</v>
       </c>
     </row>
@@ -8064,12 +7178,6 @@
         <v>0.1986967452300786</v>
       </c>
       <c r="L148">
-        <v>0.3397878632770289</v>
-      </c>
-      <c r="M148">
-        <v>0.1698581560283688</v>
-      </c>
-      <c r="N148">
         <v>0.3619444444444444</v>
       </c>
     </row>
@@ -8116,12 +7224,6 @@
         <v>0.2217063973063973</v>
       </c>
       <c r="L149">
-        <v>0.3444139225388159</v>
-      </c>
-      <c r="M149">
-        <v>0.2383116485534976</v>
-      </c>
-      <c r="N149">
         <v>0.2168312757201646</v>
       </c>
     </row>
@@ -8168,12 +7270,6 @@
         <v>0.8509741863075196</v>
       </c>
       <c r="L150">
-        <v>0.3583478359779332</v>
-      </c>
-      <c r="M150">
-        <v>0.5447772845553345</v>
-      </c>
-      <c r="N150">
         <v>0.7038065843621399</v>
       </c>
     </row>
@@ -8220,12 +7316,6 @@
         <v>0.7221993265993265</v>
       </c>
       <c r="L151">
-        <v>0.6137843371438321</v>
-      </c>
-      <c r="M151">
-        <v>0.6099306087045258</v>
-      </c>
-      <c r="N151">
         <v>0.99</v>
       </c>
     </row>
@@ -8272,12 +7362,6 @@
         <v>0.7358819304152637</v>
       </c>
       <c r="L152">
-        <v>0.8274748336461354</v>
-      </c>
-      <c r="M152">
-        <v>0.5883795091586306</v>
-      </c>
-      <c r="N152">
         <v>0.99</v>
       </c>
     </row>
@@ -8324,12 +7408,6 @@
         <v>0.9146796857463524</v>
       </c>
       <c r="L153">
-        <v>0.7902991525905704</v>
-      </c>
-      <c r="M153">
-        <v>0.6986851369967855</v>
-      </c>
-      <c r="N153">
         <v>0.6342026748971192</v>
       </c>
     </row>
@@ -8376,12 +7454,6 @@
         <v>0.5360103254769922</v>
       </c>
       <c r="L154">
-        <v>0.0842956264573736</v>
-      </c>
-      <c r="M154">
-        <v>0.4139206081942956</v>
-      </c>
-      <c r="N154">
         <v>0.6342026748971192</v>
       </c>
     </row>
@@ -8428,12 +7500,6 @@
         <v>0.695010101010101</v>
       </c>
       <c r="L155">
-        <v>0.5209287379855542</v>
-      </c>
-      <c r="M155">
-        <v>0.5124256339609163</v>
-      </c>
-      <c r="N155">
         <v>0.6342026748971192</v>
       </c>
     </row>
@@ -8480,12 +7546,6 @@
         <v>0.7218033670033669</v>
       </c>
       <c r="L156">
-        <v>0.8321008929079223</v>
-      </c>
-      <c r="M156">
-        <v>0.6578330527067707</v>
-      </c>
-      <c r="N156">
         <v>0.6342026748971192</v>
       </c>
     </row>
@@ -8532,12 +7592,6 @@
         <v>0.8297683501683502</v>
       </c>
       <c r="L157">
-        <v>0.5348626514246715</v>
-      </c>
-      <c r="M157">
-        <v>0.6487825909485178</v>
-      </c>
-      <c r="N157">
         <v>0.6342026748971192</v>
       </c>
     </row>
@@ -8584,12 +7638,6 @@
         <v>0.4373723905723906</v>
       </c>
       <c r="L158">
-        <v>0.4140834897344025</v>
-      </c>
-      <c r="M158">
-        <v>0.2726133986427879</v>
-      </c>
-      <c r="N158">
         <v>0.6342026748971192</v>
       </c>
     </row>
@@ -8636,12 +7684,6 @@
         <v>0.6216695847362514</v>
       </c>
       <c r="L159">
-        <v>0.4187095489961895</v>
-      </c>
-      <c r="M159">
-        <v>0.5492275116077351</v>
-      </c>
-      <c r="N159">
         <v>0.6342026748971192</v>
       </c>
     </row>
@@ -8688,12 +7730,6 @@
         <v>0.6522904601571269</v>
       </c>
       <c r="L160">
-        <v>0.3211721549223682</v>
-      </c>
-      <c r="M160">
-        <v>0.5257263125669677</v>
-      </c>
-      <c r="N160">
         <v>0.6342026748971192</v>
       </c>
     </row>
@@ -8740,12 +7776,6 @@
         <v>0.5686109988776655</v>
       </c>
       <c r="L161">
-        <v>0.4698191434908718</v>
-      </c>
-      <c r="M161">
-        <v>0.3457671309760703</v>
-      </c>
-      <c r="N161">
         <v>0.6342026748971192</v>
       </c>
     </row>
@@ -8792,12 +7822,6 @@
         <v>0.7546680134680134</v>
       </c>
       <c r="L162">
-        <v>0.1865148154467383</v>
-      </c>
-      <c r="M162">
-        <v>0.5018750956681464</v>
-      </c>
-      <c r="N162">
         <v>0.6342026748971192</v>
       </c>
     </row>
@@ -8844,12 +7868,6 @@
         <v>0.4751205387205387</v>
       </c>
       <c r="L163">
-        <v>0.2654365011658988</v>
-      </c>
-      <c r="M163">
-        <v>0.3098652992499618</v>
-      </c>
-      <c r="N163">
         <v>0.6342026748971192</v>
       </c>
     </row>
@@ -8896,12 +7914,6 @@
         <v>0.6273010101010101</v>
       </c>
       <c r="L164">
-        <v>0.2097008474094295</v>
-      </c>
-      <c r="M164">
-        <v>0.3793188427981019</v>
-      </c>
-      <c r="N164">
         <v>0.6342026748971192</v>
       </c>
     </row>
@@ -8948,12 +7960,6 @@
         <v>0.7188996632996633</v>
       </c>
       <c r="L165">
-        <v>0.2933043280441335</v>
-      </c>
-      <c r="M165">
-        <v>0.6639333639471401</v>
-      </c>
-      <c r="N165">
         <v>0.6342026748971192</v>
       </c>
     </row>
@@ -9000,12 +8006,6 @@
         <v>0.7137961840628507</v>
       </c>
       <c r="L166">
-        <v>0.4419513166126372</v>
-      </c>
-      <c r="M166">
-        <v>0.6392821062299096</v>
-      </c>
-      <c r="N166">
         <v>0.6342026748971192</v>
       </c>
     </row>
@@ -9052,12 +8052,6 @@
         <v>0.7584076318742986</v>
       </c>
       <c r="L167">
-        <v>0.6509600181993971</v>
-      </c>
-      <c r="M167">
-        <v>0.6674335425276799</v>
-      </c>
-      <c r="N167">
         <v>0.6342026748971192</v>
       </c>
     </row>
@@ -9104,12 +8098,6 @@
         <v>0.7825611672278339</v>
       </c>
       <c r="L168">
-        <v>0.5580486833873628</v>
-      </c>
-      <c r="M168">
-        <v>0.6739838767284044</v>
-      </c>
-      <c r="N168">
         <v>0.6342026748971192</v>
       </c>
     </row>
@@ -9156,12 +8144,6 @@
         <v>0.7263349046015712</v>
       </c>
       <c r="L169">
-        <v>0.7391895580958882</v>
-      </c>
-      <c r="M169">
-        <v>0.6210311750599521</v>
-      </c>
-      <c r="N169">
         <v>0.6342026748971192</v>
       </c>
     </row>
@@ -9208,12 +8190,6 @@
         <v>0.560515824915825</v>
       </c>
       <c r="L170">
-        <v>0.4698191434908718</v>
-      </c>
-      <c r="M170">
-        <v>0.576378896882494</v>
-      </c>
-      <c r="N170">
         <v>0.6342026748971192</v>
       </c>
     </row>
@@ -9260,12 +8236,6 @@
         <v>0.8064507295173963</v>
       </c>
       <c r="L171">
-        <v>0.4930609111073195</v>
-      </c>
-      <c r="M171">
-        <v>0.6505326802387876</v>
-      </c>
-      <c r="N171">
         <v>0.6342026748971192</v>
       </c>
     </row>
@@ -9312,12 +8282,6 @@
         <v>0.8537019079685747</v>
       </c>
       <c r="L172">
-        <v>0.5394887106864584</v>
-      </c>
-      <c r="M172">
-        <v>0.7352370018878513</v>
-      </c>
-      <c r="N172">
         <v>0.6342026748971192</v>
       </c>
     </row>
@@ -9364,12 +8328,6 @@
         <v>0.7106285072951739</v>
       </c>
       <c r="L173">
-        <v>0.6834539043394187</v>
-      </c>
-      <c r="M173">
-        <v>0.5576279402010307</v>
-      </c>
-      <c r="N173">
         <v>0.6342026748971192</v>
       </c>
     </row>
@@ -9416,12 +8374,6 @@
         <v>0.7386976430976431</v>
       </c>
       <c r="L174">
-        <v>0.6555860774611841</v>
-      </c>
-      <c r="M174">
-        <v>0.6557829481095974</v>
-      </c>
-      <c r="N174">
         <v>0.7167695473251028</v>
       </c>
     </row>
@@ -9468,12 +8420,6 @@
         <v>0.6571299663299663</v>
       </c>
       <c r="L175">
-        <v>0.2701182960814423</v>
-      </c>
-      <c r="M175">
-        <v>0.6225812541456197</v>
-      </c>
-      <c r="N175">
         <v>0.4549897119341563</v>
       </c>
     </row>
@@ -9520,12 +8466,6 @@
         <v>0.656074074074074</v>
       </c>
       <c r="L176">
-        <v>0.4837530569299892</v>
-      </c>
-      <c r="M176">
-        <v>0.6258314199704066</v>
-      </c>
-      <c r="N176">
         <v>0.3347942386831276</v>
       </c>
     </row>
@@ -9572,12 +8512,6 @@
         <v>0.656074074074074</v>
       </c>
       <c r="L177">
-        <v>0.3955235170334983</v>
-      </c>
-      <c r="M177">
-        <v>0.6258314199704066</v>
-      </c>
-      <c r="N177">
         <v>0.3347942386831276</v>
       </c>
     </row>
@@ -9624,12 +8558,6 @@
         <v>0.656074074074074</v>
       </c>
       <c r="L178">
-        <v>0.4373252573508502</v>
-      </c>
-      <c r="M178">
-        <v>0.6258314199704066</v>
-      </c>
-      <c r="N178">
         <v>0.3347942386831276</v>
       </c>
     </row>
@@ -9676,12 +8604,6 @@
         <v>0.656074074074074</v>
       </c>
       <c r="L179">
-        <v>0.4791269976682022</v>
-      </c>
-      <c r="M179">
-        <v>0.6258314199704066</v>
-      </c>
-      <c r="N179">
         <v>0.3347942386831276</v>
       </c>
     </row>
@@ -9728,12 +8650,6 @@
         <v>0.656074074074074</v>
       </c>
       <c r="L180">
-        <v>0.5627304783029062</v>
-      </c>
-      <c r="M180">
-        <v>0.6258314199704066</v>
-      </c>
-      <c r="N180">
         <v>0.3347942386831276</v>
       </c>
     </row>
@@ -9780,12 +8696,6 @@
         <v>0.656074074074074</v>
       </c>
       <c r="L181">
-        <v>0.7206295853949838</v>
-      </c>
-      <c r="M181">
-        <v>0.6258314199704066</v>
-      </c>
-      <c r="N181">
         <v>0.3347942386831276</v>
       </c>
     </row>
@@ -9832,12 +8742,6 @@
         <v>0.656074074074074</v>
       </c>
       <c r="L182">
-        <v>0.7391895580958882</v>
-      </c>
-      <c r="M182">
-        <v>0.6258314199704066</v>
-      </c>
-      <c r="N182">
         <v>0.3347942386831276</v>
       </c>
     </row>
@@ -9884,12 +8788,6 @@
         <v>0.656074074074074</v>
       </c>
       <c r="L183">
-        <v>0.818166979468805</v>
-      </c>
-      <c r="M183">
-        <v>0.6258314199704066</v>
-      </c>
-      <c r="N183">
         <v>0.3347942386831276</v>
       </c>
     </row>
@@ -9936,12 +8834,6 @@
         <v>0.656074074074074</v>
       </c>
       <c r="L184">
-        <v>0.6555860774611841</v>
-      </c>
-      <c r="M184">
-        <v>0.6258314199704066</v>
-      </c>
-      <c r="N184">
         <v>0.3347942386831276</v>
       </c>
     </row>
@@ -9988,12 +8880,6 @@
         <v>0.656074074074074</v>
       </c>
       <c r="L185">
-        <v>0.5023130296308934</v>
-      </c>
-      <c r="M185">
-        <v>0.6258314199704066</v>
-      </c>
-      <c r="N185">
         <v>0.3347942386831276</v>
       </c>
     </row>
@@ -10040,12 +8926,6 @@
         <v>0.656074074074074</v>
       </c>
       <c r="L186">
-        <v>0.7066956719558665</v>
-      </c>
-      <c r="M186">
-        <v>0.6258314199704066</v>
-      </c>
-      <c r="N186">
         <v>0.3347942386831276</v>
       </c>
     </row>
@@ -10092,12 +8972,6 @@
         <v>0.656074074074074</v>
       </c>
       <c r="L187">
-        <v>0.5766643917420236</v>
-      </c>
-      <c r="M187">
-        <v>0.6258314199704066</v>
-      </c>
-      <c r="N187">
         <v>0.3347942386831276</v>
       </c>
     </row>
@@ -10144,12 +9018,6 @@
         <v>0.3835658810325477</v>
       </c>
       <c r="L188">
-        <v>0.5116208838082239</v>
-      </c>
-      <c r="M188">
-        <v>0.3731185264554314</v>
-      </c>
-      <c r="N188">
         <v>0.2852829218106996</v>
       </c>
     </row>
@@ -10196,12 +9064,6 @@
         <v>0.2782406285072952</v>
       </c>
       <c r="L189">
-        <v>0.5859165102655973</v>
-      </c>
-      <c r="M189">
-        <v>0.3227159548956579</v>
-      </c>
-      <c r="N189">
         <v>0.2210082304526749</v>
       </c>
     </row>
@@ -10248,12 +9110,6 @@
         <v>0.3101373737373737</v>
       </c>
       <c r="L190">
-        <v>0.3862156628561679</v>
-      </c>
-      <c r="M190">
-        <v>0.2737134547681004</v>
-      </c>
-      <c r="N190">
         <v>0.1186368312757201</v>
       </c>
     </row>
@@ -10300,12 +9156,6 @@
         <v>0.304989898989899</v>
       </c>
       <c r="L191">
-        <v>0.3165460956605812</v>
-      </c>
-      <c r="M191">
-        <v>0.2745634981376601</v>
-      </c>
-      <c r="N191">
         <v>0.1427263374485596</v>
       </c>
     </row>
@@ -10352,12 +9202,6 @@
         <v>0.1283919191919192</v>
       </c>
       <c r="L192">
-        <v>0.3026121822214639</v>
-      </c>
-      <c r="M192">
-        <v>0.1025047196285525</v>
-      </c>
-      <c r="N192">
         <v>0.07247427983539094</v>
       </c>
     </row>
@@ -10404,12 +9248,6 @@
         <v>0.2840920314253648</v>
       </c>
       <c r="L193">
-        <v>0.6509600181993971</v>
-      </c>
-      <c r="M193">
-        <v>0.2999147915709985</v>
-      </c>
-      <c r="N193">
         <v>0.456682098765432</v>
       </c>
     </row>
@@ -10456,12 +9294,6 @@
         <v>0.2506114478114478</v>
       </c>
       <c r="L194">
-        <v>0.2747443553432292</v>
-      </c>
-      <c r="M194">
-        <v>0.2915643655288535</v>
-      </c>
-      <c r="N194">
         <v>0.2496347736625514</v>
       </c>
     </row>
@@ -10508,12 +9340,6 @@
         <v>0.249907519640853</v>
       </c>
       <c r="L195">
-        <v>0.256184382642325</v>
-      </c>
-      <c r="M195">
-        <v>0.2724633909893362</v>
-      </c>
-      <c r="N195">
         <v>0.2183076131687242</v>
       </c>
     </row>
@@ -10560,12 +9386,6 @@
         <v>0.3064417508417508</v>
       </c>
       <c r="L196">
-        <v>0.07504350793379969</v>
-      </c>
-      <c r="M196">
-        <v>0.3962197050869942</v>
-      </c>
-      <c r="N196">
         <v>0.2961574074074074</v>
       </c>
     </row>
@@ -10612,12 +9432,6 @@
         <v>0.3230720538720538</v>
       </c>
       <c r="L197">
-        <v>0.5162469430700107</v>
-      </c>
-      <c r="M197">
-        <v>0.3171156691667942</v>
-      </c>
-      <c r="N197">
         <v>0.1559413580246914</v>
       </c>
     </row>
@@ -10664,12 +9478,6 @@
         <v>0.229581593714927</v>
       </c>
       <c r="L198">
-        <v>0.3862156628561679</v>
-      </c>
-      <c r="M198">
-        <v>0.3090652584315526</v>
-      </c>
-      <c r="N198">
         <v>0.2227366255144033</v>
       </c>
     </row>
@@ -10716,12 +9524,6 @@
         <v>0.2068359147025814</v>
       </c>
       <c r="L199">
-        <v>0.1632730478302906</v>
-      </c>
-      <c r="M199">
-        <v>0.2128103474667075</v>
-      </c>
-      <c r="N199">
         <v>0.1153240740740741</v>
       </c>
     </row>
@@ -10768,12 +9570,6 @@
         <v>0.3250078563411897</v>
       </c>
       <c r="L200">
-        <v>0.1678991070920776</v>
-      </c>
-      <c r="M200">
-        <v>0.3003648145313537</v>
-      </c>
-      <c r="N200">
         <v>0.2098456790123457</v>
       </c>
     </row>
@@ -10820,12 +9616,6 @@
         <v>0.2785046015712682</v>
       </c>
       <c r="L201">
-        <v>0.3490399818006029</v>
-      </c>
-      <c r="M201">
-        <v>0.3742685851318944</v>
-      </c>
-      <c r="N201">
         <v>0.2252211934156378</v>
       </c>
     </row>
@@ -10872,12 +9662,6 @@
         <v>0.3064417508417508</v>
       </c>
       <c r="L202">
-        <v>0.08897742137291702</v>
-      </c>
-      <c r="M202">
-        <v>0.3088152456757998</v>
-      </c>
-      <c r="N202">
         <v>0.1330401234567901</v>
       </c>
     </row>
@@ -10924,12 +9708,6 @@
         <v>0.5539604938271605</v>
       </c>
       <c r="L203">
-        <v>0.8088591252914747</v>
-      </c>
-      <c r="M203">
-        <v>0.4858242767488137</v>
-      </c>
-      <c r="N203">
         <v>0.3639969135802469</v>
       </c>
     </row>
@@ -10976,12 +9754,6 @@
         <v>0.2319573512906846</v>
       </c>
       <c r="L204">
-        <v>0.2050747881476426</v>
-      </c>
-      <c r="M204">
-        <v>0.2143604265523751</v>
-      </c>
-      <c r="N204">
         <v>0.06613683127572015</v>
       </c>
     </row>
@@ -11028,12 +9800,6 @@
         <v>0.576398204264871</v>
       </c>
       <c r="L205">
-        <v>0.4047756355570721</v>
-      </c>
-      <c r="M205">
-        <v>0.4898244808408592</v>
-      </c>
-      <c r="N205">
         <v>0.7072273662551439</v>
       </c>
     </row>
@@ -11080,12 +9846,6 @@
         <v>0.6190738496071829</v>
       </c>
       <c r="L206">
-        <v>0.05180174031735198</v>
-      </c>
-      <c r="M206">
-        <v>0.4166707485075769</v>
-      </c>
-      <c r="N206">
         <v>0.5365843621399177</v>
       </c>
     </row>
@@ -11132,12 +9892,6 @@
         <v>0.7461328843995511</v>
       </c>
       <c r="L207">
-        <v>0.3165460956605812</v>
-      </c>
-      <c r="M207">
-        <v>0.6391320985764579</v>
-      </c>
-      <c r="N207">
         <v>0.6409002057613169</v>
       </c>
     </row>
@@ -11184,12 +9938,6 @@
         <v>0.7935600448933782</v>
       </c>
       <c r="L208">
-        <v>0.7391895580958882</v>
-      </c>
-      <c r="M208">
-        <v>0.6732838410122965</v>
-      </c>
-      <c r="N208">
         <v>0.7988323045267488</v>
       </c>
     </row>
@@ -11236,12 +9984,6 @@
         <v>0.5933804713804715</v>
       </c>
       <c r="L209">
-        <v>0.260810441904112</v>
-      </c>
-      <c r="M209">
-        <v>0.5760788815755905</v>
-      </c>
-      <c r="N209">
         <v>0.6134259259259258</v>
       </c>
     </row>
@@ -11288,12 +10030,6 @@
         <v>0.5648713804713805</v>
       </c>
       <c r="L210">
-        <v>0.09360348063470396</v>
-      </c>
-      <c r="M210">
-        <v>0.5514276238583601</v>
-      </c>
-      <c r="N210">
         <v>0.7507973251028806</v>
       </c>
     </row>
@@ -11340,12 +10076,6 @@
         <v>0.4886271604938272</v>
       </c>
       <c r="L211">
-        <v>0.01</v>
-      </c>
-      <c r="M211">
-        <v>0.4536226338078473</v>
-      </c>
-      <c r="N211">
         <v>0.4895936213991769</v>
       </c>
     </row>
@@ -11392,12 +10122,6 @@
         <v>0.01</v>
       </c>
       <c r="L212">
-        <v>0.3444139225388159</v>
-      </c>
-      <c r="M212">
-        <v>0.01</v>
-      </c>
-      <c r="N212">
         <v>0.1355606995884774</v>
       </c>
     </row>
@@ -11444,12 +10168,6 @@
         <v>0.01</v>
       </c>
       <c r="L213">
-        <v>0.4791269976682022</v>
-      </c>
-      <c r="M213">
-        <v>0.01</v>
-      </c>
-      <c r="N213">
         <v>0.07557098765432098</v>
       </c>
     </row>
@@ -11496,12 +10214,6 @@
         <v>0.01</v>
       </c>
       <c r="L214">
-        <v>0.09360348063470396</v>
-      </c>
-      <c r="M214">
-        <v>0.01</v>
-      </c>
-      <c r="N214">
         <v>0.07366255144032921</v>
       </c>
     </row>
@@ -11548,12 +10260,6 @@
         <v>0.01</v>
       </c>
       <c r="L215">
-        <v>0.3072382414832508</v>
-      </c>
-      <c r="M215">
-        <v>0.01</v>
-      </c>
-      <c r="N215">
         <v>0.05720679012345679</v>
       </c>
     </row>
@@ -11600,12 +10306,6 @@
         <v>0.01</v>
       </c>
       <c r="L216">
-        <v>0.5394887106864584</v>
-      </c>
-      <c r="M216">
-        <v>0.01</v>
-      </c>
-      <c r="N216">
         <v>0.0368261316872428</v>
       </c>
     </row>
@@ -11652,12 +10352,6 @@
         <v>0.02077890011223345</v>
       </c>
       <c r="L217">
-        <v>0.8460348063470396</v>
-      </c>
-      <c r="M217">
-        <v>0.01</v>
-      </c>
-      <c r="N217">
         <v>0.2701954732510288</v>
       </c>
     </row>
@@ -11704,12 +10398,6 @@
         <v>0.01</v>
       </c>
       <c r="L218">
-        <v>0.2050747881476426</v>
-      </c>
-      <c r="M218">
-        <v>0.01</v>
-      </c>
-      <c r="N218">
         <v>0.01</v>
       </c>
     </row>
@@ -11756,12 +10444,6 @@
         <v>0.01</v>
       </c>
       <c r="L219">
-        <v>0.9342643462435307</v>
-      </c>
-      <c r="M219">
-        <v>0.01</v>
-      </c>
-      <c r="N219">
         <v>0.08612139917695472</v>
       </c>
     </row>
@@ -11808,12 +10490,6 @@
         <v>0.8855106621773289</v>
       </c>
       <c r="L220">
-        <v>0.99</v>
-      </c>
-      <c r="M220">
-        <v>0.7454875248737179</v>
-      </c>
-      <c r="N220">
         <v>0.672227366255144</v>
       </c>
     </row>
@@ -11860,12 +10536,6 @@
         <v>0.7480246913580247</v>
       </c>
       <c r="L221">
-        <v>0.6834539043394187</v>
-      </c>
-      <c r="M221">
-        <v>0.7097357008010613</v>
-      </c>
-      <c r="N221">
         <v>0.4048302469135802</v>
       </c>
     </row>
@@ -11912,12 +10582,6 @@
         <v>0.76571088664422</v>
       </c>
       <c r="L222">
-        <v>0.4698191434908718</v>
-      </c>
-      <c r="M222">
-        <v>0.7143859380580642</v>
-      </c>
-      <c r="N222">
         <v>0.2996502057613168</v>
       </c>
     </row>
@@ -11964,12 +10628,6 @@
         <v>0.7277867564534232</v>
       </c>
       <c r="L223">
-        <v>0.7252556446567708</v>
-      </c>
-      <c r="M223">
-        <v>0.7408372876167151</v>
-      </c>
-      <c r="N223">
         <v>0.5534362139917695</v>
       </c>
     </row>
@@ -12016,12 +10674,6 @@
         <v>0.8658886644219976</v>
       </c>
       <c r="L224">
-        <v>0.8321008929079223</v>
-      </c>
-      <c r="M224">
-        <v>0.7889897443747129</v>
-      </c>
-      <c r="N224">
         <v>0.5088940329218107</v>
       </c>
     </row>
@@ -12068,12 +10720,6 @@
         <v>0.7462648709315376</v>
       </c>
       <c r="L225">
-        <v>0.3815896035943809</v>
-      </c>
-      <c r="M225">
-        <v>0.6197811112811877</v>
-      </c>
-      <c r="N225">
         <v>0.2395524691358024</v>
       </c>
     </row>
@@ -12120,12 +10766,6 @@
         <v>0.7926361391694724</v>
       </c>
       <c r="L226">
-        <v>0.5116208838082239</v>
-      </c>
-      <c r="M226">
-        <v>0.6002301137813154</v>
-      </c>
-      <c r="N226">
         <v>0.3256841563786008</v>
       </c>
     </row>
@@ -12172,12 +10812,6 @@
         <v>0.7199115600448934</v>
       </c>
       <c r="L227">
-        <v>0.4698191434908718</v>
-      </c>
-      <c r="M227">
-        <v>0.6699336700852083</v>
-      </c>
-      <c r="N227">
         <v>0.2900360082304526</v>
       </c>
     </row>
@@ -12224,12 +10858,6 @@
         <v>0.5679950617283951</v>
       </c>
       <c r="L228">
-        <v>0.7020696126940794</v>
-      </c>
-      <c r="M228">
-        <v>0.6208311648553497</v>
-      </c>
-      <c r="N228">
         <v>0.5324794238683127</v>
       </c>
     </row>
@@ -12276,12 +10904,6 @@
         <v>0.6770159371492706</v>
       </c>
       <c r="L229">
-        <v>0.8832104874026045</v>
-      </c>
-      <c r="M229">
-        <v>0.6412322057247818</v>
-      </c>
-      <c r="N229">
         <v>0.3230915637860082</v>
       </c>
     </row>
@@ -12328,12 +10950,6 @@
         <v>0.4463034792368126</v>
       </c>
       <c r="L230">
-        <v>0.9063965193652961</v>
-      </c>
-      <c r="M230">
-        <v>0.3780687790193377</v>
-      </c>
-      <c r="N230">
         <v>0.550051440329218</v>
       </c>
     </row>
@@ -12380,12 +10996,6 @@
         <v>0.2415043771043771</v>
       </c>
       <c r="L231">
-        <v>0.9110783142808393</v>
-      </c>
-      <c r="M231">
-        <v>0.2824138986682994</v>
-      </c>
-      <c r="N231">
         <v>0.2251851851851852</v>
       </c>
     </row>
@@ -12432,12 +11042,6 @@
         <v>0.4195542087542087</v>
       </c>
       <c r="L232">
-        <v>0.6416521640220667</v>
-      </c>
-      <c r="M232">
-        <v>0.3648681055155875</v>
-      </c>
-      <c r="N232">
         <v>0.243369341563786</v>
       </c>
     </row>
@@ -12484,12 +11088,6 @@
         <v>0.2708053872053872</v>
       </c>
       <c r="L233">
-        <v>0.5394887106864584</v>
-      </c>
-      <c r="M233">
-        <v>0.3130654625235981</v>
-      </c>
-      <c r="N233">
         <v>0.5367283950617283</v>
       </c>
     </row>
